--- a/meta/1-1-1.xlsx
+++ b/meta/1-1-1.xlsx
@@ -29,9 +29,6 @@
     <t>national_indicator_description</t>
   </si>
   <si>
-    <t>Metadaten aus Excel</t>
-  </si>
-  <si>
     <r>
       <t>other_info</t>
     </r>
@@ -47,6 +44,17 @@
   </si>
   <si>
     <t>Weitere Informationen</t>
+  </si>
+  <si>
+    <t>Anstieg der Bevölkerung deutlich höher als im Vorjahr Die Bevölkerungszahl Niedersachsens lag auch am Ende des Jahres 2021 bei über 8 Mio. Einwohnerinnen und Einwohnern. Im Vergleich zum Vorjahr entsprach dies einem Plus von 23 610 Personen bzw. rund 0,3 %. Der Anstieg fiel damit größer aus als im Vorjahr (2019/2020: +9 813 Personen). In Deutschland lebten Ende 2021 insgesamt über 83,2 Mio. Menschen; die Einwohnerzahl Deutschlands stieg somit nach einem leichten Rückgang im Vorjahr wieder um 82 093 Personen bzw. um 0,1 %. Die Bevölkerungsentwicklung war 2021 in Niedersachsen damit im zehnten Jahr in Folge
+steigend, ebenso wie in 6 weiteren Ländern. Währenddessen gab es das fünfte Jahr in
+Folge eine rückgängige Bevölkerungsentwicklung in 4 Ländern: Im Vergleich 2021 gegenüber 2016 betrug der Rückgang in Sachsen-Anhalt 3,0 %, in Thüringen 2,3 %, im Saarland 1,4 % und in Sachsen 1,0 %. In diesem Zeitraum stieg die Zahl der Einwohnerinnen
+und Einwohner in Niedersachsen um rund 81 300 Personen bzw. 1,0 %. In Deutschland
+waren es etwas über 700 000 Personen mehr (+0,9 %).
+Durchschnittlich wohnten 2021 in Niedersachsen 168 Einwohnerinnen und Einwohner je
+Quadratkilometer (Deutschland: 233 Personen). Im Ländervergleich hatten nur 4 Länder
+eine geringere Bevölkerungsdichte: Mecklenburg-Vorpommern (69), Brandenburg (86),
+Sachsen-Anhalt (106) und Thüringen (130).</t>
   </si>
 </sst>
 </file>
@@ -100,12 +108,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -388,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,20 +408,20 @@
     <col min="1" max="1" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/meta/1-1-1.xlsx
+++ b/meta/1-1-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Biester\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BiesterChristophLSN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F112B0D-A0C0-4FB4-80AA-BE160A16150B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>national_indicator_description</t>
   </si>
@@ -56,12 +57,18 @@
 eine geringere Bevölkerungsdichte: Mecklenburg-Vorpommern (69), Brandenburg (86),
 Sachsen-Anhalt (106) und Thüringen (130).</t>
   </si>
+  <si>
+    <t>data_show_map</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +94,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -117,6 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -396,19 +410,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,12 +430,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/meta/1-1-1.xlsx
+++ b/meta/1-1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BiesterChristophLSN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F112B0D-A0C0-4FB4-80AA-BE160A16150B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6848C79F-BBA0-4978-8DD5-9BA3A0860071}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>national_indicator_description</t>
   </si>
@@ -63,12 +63,30 @@
   <si>
     <t>true</t>
   </si>
+  <si>
+    <t>SDG_GOAL</t>
+  </si>
+  <si>
+    <t>Bevölkerung</t>
+  </si>
+  <si>
+    <t>indicator_name</t>
+  </si>
+  <si>
+    <t>Bevölkerungsentwicklung in Niedersachsen und den Bundesländern</t>
+  </si>
+  <si>
+    <t>SDG_INDICATOR</t>
+  </si>
+  <si>
+    <t>Bev. Entwicklung</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +118,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF116329"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -131,6 +155,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -411,38 +436,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="104.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+      <c r="A2" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="250.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
